--- a/Analytics/I1/MultiBookings_i1.xlsx
+++ b/Analytics/I1/MultiBookings_i1.xlsx
@@ -91,12 +91,12 @@
     <t>Udinese</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>Lecce</t>
   </si>
   <si>
-    <t>Roma</t>
-  </si>
-  <si>
     <t>Milan</t>
   </si>
   <si>
@@ -106,12 +106,12 @@
     <t>Cagliari</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Frosinone</t>
   </si>
   <si>
@@ -121,13 +121,13 @@
     <t>Napoli</t>
   </si>
   <si>
+    <t>Verona</t>
+  </si>
+  <si>
     <t>Juventus</t>
   </si>
   <si>
     <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Verona</t>
   </si>
   <si>
     <t>Inter</t>
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>11550.0</v>
+        <v>12100.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>10800.0</v>
+        <v>11600.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>10100.0</v>
+        <v>10800.0</v>
       </c>
     </row>
     <row r="7">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8300.0</v>
+        <v>8600.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>8150.0</v>
+        <v>8300.0</v>
       </c>
     </row>
     <row r="12">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>5950.0</v>
+        <v>6050.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>5500.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>5450.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="18">
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>12150.0</v>
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>10250.0</v>
+        <v>10300.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>9750.0</v>
+        <v>10250.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>9700.0</v>
+        <v>9750.0</v>
       </c>
     </row>
     <row r="7">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>9100.0</v>
+        <v>9300.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>8350.0</v>
+        <v>9100.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" t="n">
-        <v>8250.0</v>
+        <v>8350.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="n">
-        <v>8200.0</v>
+        <v>8250.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>7800.0</v>
+        <v>8200.0</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>5950.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>5850.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="n">
-        <v>5650.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="19">
@@ -714,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>22950.0</v>
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>20350.0</v>
+        <v>21850.0</v>
       </c>
       <c r="D4" t="n">
-        <v>535.5263157894736</v>
+        <v>575.0</v>
       </c>
     </row>
     <row r="5">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>18850.0</v>
+        <v>18900.0</v>
       </c>
       <c r="D6" t="n">
-        <v>496.05263157894734</v>
+        <v>497.36842105263156</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>17850.0</v>
+        <v>18850.0</v>
       </c>
       <c r="D7" t="n">
-        <v>469.7368421052632</v>
+        <v>496.05263157894734</v>
       </c>
     </row>
     <row r="8">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="n">
         <v>16650.0</v>
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>16150.0</v>
+        <v>16300.0</v>
       </c>
       <c r="D9" t="n">
-        <v>425.0</v>
+        <v>428.94736842105266</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>16050.0</v>
+        <v>16150.0</v>
       </c>
       <c r="D10" t="n">
-        <v>422.36842105263156</v>
+        <v>425.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C11" t="n">
-        <v>15750.0</v>
+        <v>16050.0</v>
       </c>
       <c r="D11" t="n">
-        <v>414.4736842105263</v>
+        <v>422.36842105263156</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>14500.0</v>
+        <v>14800.0</v>
       </c>
       <c r="D12" t="n">
-        <v>381.57894736842104</v>
+        <v>389.4736842105263</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>14350.0</v>
+        <v>14500.0</v>
       </c>
       <c r="D13" t="n">
-        <v>377.63157894736844</v>
+        <v>381.57894736842104</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>14200.0</v>
+        <v>14350.0</v>
       </c>
       <c r="D14" t="n">
-        <v>373.6842105263158</v>
+        <v>377.63157894736844</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>13650.0</v>
+        <v>14250.0</v>
       </c>
       <c r="D15" t="n">
-        <v>359.2105263157895</v>
+        <v>375.0</v>
       </c>
     </row>
     <row r="16">
@@ -899,10 +899,10 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>13300.0</v>
+        <v>14200.0</v>
       </c>
       <c r="D16" t="n">
-        <v>350.0</v>
+        <v>373.6842105263158</v>
       </c>
     </row>
     <row r="17">
@@ -955,10 +955,10 @@
         <v>38</v>
       </c>
       <c r="C20" t="n">
-        <v>10950.0</v>
+        <v>11400.0</v>
       </c>
       <c r="D20" t="n">
-        <v>288.1578947368421</v>
+        <v>300.0</v>
       </c>
     </row>
     <row r="21">
@@ -969,10 +969,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>9650.0</v>
+        <v>10200.0</v>
       </c>
       <c r="D21" t="n">
-        <v>253.94736842105263</v>
+        <v>268.42105263157896</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/MultiBookings_i1.xlsx
+++ b/Analytics/I1/MultiBookings_i1.xlsx
@@ -82,73 +82,73 @@
     <t>20</t>
   </si>
   <si>
-    <t>Salernitana</t>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
+  </si>
+  <si>
+    <t>Genoa</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Verona</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Venezia</t>
+  </si>
+  <si>
+    <t>Torino</t>
   </si>
   <si>
     <t>Bologna</t>
   </si>
   <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
+    <t>Empoli</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Lazio</t>
-  </si>
-  <si>
-    <t>Genoa</t>
-  </si>
-  <si>
-    <t>Frosinone</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Verona</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Inter</t>
-  </si>
-  <si>
-    <t>Torino</t>
-  </si>
-  <si>
-    <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Sassuolo</t>
-  </si>
-  <si>
     <t>AwayTeam</t>
   </si>
   <si>
     <t>SUM("TMultiBookings")</t>
   </si>
   <si>
-    <t>SUM("TMultiBookings") / 38</t>
+    <t>SUM("TMultiBookings") / 11</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>12450.0</v>
+        <v>4600.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>12200.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>12100.0</v>
+        <v>3800.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>11600.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>10800.0</v>
+        <v>3650.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>9550.0</v>
+        <v>3450.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>9250.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>9150.0</v>
+        <v>2750.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>8600.0</v>
+        <v>2450.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>8300.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>7350.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>6700.0</v>
+        <v>1700.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>6300.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>6050.0</v>
+        <v>1300.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>5950.0</v>
+        <v>1100.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>5500.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>5300.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>5250.0</v>
+        <v>900.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>4300.0</v>
+        <v>750.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>3800.0</v>
+        <v>700.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>12550.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>12150.0</v>
+        <v>4250.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>10300.0</v>
+        <v>3850.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>10250.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
-        <v>9750.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>9400.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C8" t="n">
-        <v>9300.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>9100.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>8350.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>8250.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>8200.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>7200.0</v>
+        <v>2050.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="n">
-        <v>6900.0</v>
+        <v>1550.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>6400.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
-        <v>6400.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C17" t="n">
-        <v>6100.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>5950.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C19" t="n">
-        <v>5350.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>4400.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>4200.0</v>
+        <v>200.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>24750.0</v>
+        <v>8450.0</v>
       </c>
       <c r="D2" t="n">
-        <v>651.3157894736842</v>
+        <v>768.1818181818181</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>22950.0</v>
+        <v>7300.0</v>
       </c>
       <c r="D3" t="n">
-        <v>603.9473684210526</v>
+        <v>663.6363636363636</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>21850.0</v>
+        <v>6200.0</v>
       </c>
       <c r="D4" t="n">
-        <v>575.0</v>
+        <v>563.6363636363636</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
-        <v>18950.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>498.6842105263158</v>
+        <v>518.1818181818181</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>18900.0</v>
+        <v>5650.0</v>
       </c>
       <c r="D6" t="n">
-        <v>497.36842105263156</v>
+        <v>513.6363636363636</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C7" t="n">
-        <v>18850.0</v>
+        <v>5350.0</v>
       </c>
       <c r="D7" t="n">
-        <v>496.05263157894734</v>
+        <v>486.3636363636364</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>16650.0</v>
+        <v>5350.0</v>
       </c>
       <c r="D8" t="n">
-        <v>438.1578947368421</v>
+        <v>486.3636363636364</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>16300.0</v>
+        <v>5200.0</v>
       </c>
       <c r="D9" t="n">
-        <v>428.94736842105266</v>
+        <v>472.72727272727275</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>16150.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D10" t="n">
-        <v>425.0</v>
+        <v>468.1818181818182</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C11" t="n">
-        <v>16050.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D11" t="n">
-        <v>422.36842105263156</v>
+        <v>463.6363636363636</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
-        <v>14800.0</v>
+        <v>4200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>389.4736842105263</v>
+        <v>381.8181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>14500.0</v>
+        <v>3900.0</v>
       </c>
       <c r="D13" t="n">
-        <v>381.57894736842104</v>
+        <v>354.54545454545456</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>14350.0</v>
+        <v>3650.0</v>
       </c>
       <c r="D14" t="n">
-        <v>377.63157894736844</v>
+        <v>331.8181818181818</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>14250.0</v>
+        <v>3650.0</v>
       </c>
       <c r="D15" t="n">
-        <v>375.0</v>
+        <v>331.8181818181818</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="n">
-        <v>14200.0</v>
+        <v>3500.0</v>
       </c>
       <c r="D16" t="n">
-        <v>373.6842105263158</v>
+        <v>318.1818181818182</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C17" t="n">
-        <v>12650.0</v>
+        <v>3250.0</v>
       </c>
       <c r="D17" t="n">
-        <v>332.89473684210526</v>
+        <v>295.45454545454544</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>11750.0</v>
+        <v>2750.0</v>
       </c>
       <c r="D18" t="n">
-        <v>309.2105263157895</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" t="n">
-        <v>11500.0</v>
+        <v>2700.0</v>
       </c>
       <c r="D19" t="n">
-        <v>302.63157894736844</v>
+        <v>245.45454545454547</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>11400.0</v>
+        <v>2300.0</v>
       </c>
       <c r="D20" t="n">
-        <v>300.0</v>
+        <v>209.0909090909091</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C21" t="n">
-        <v>10200.0</v>
+        <v>2250.0</v>
       </c>
       <c r="D21" t="n">
-        <v>268.42105263157896</v>
+        <v>204.54545454545453</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/I1/MultiBookings_i1.xlsx
+++ b/Analytics/I1/MultiBookings_i1.xlsx
@@ -82,64 +82,64 @@
     <t>20</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Parma</t>
+  </si>
+  <si>
     <t>Lazio</t>
   </si>
   <si>
     <t>Fiorentina</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
     <t>Genoa</t>
   </si>
   <si>
-    <t>Parma</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Juventus</t>
+    <t>Milan</t>
   </si>
   <si>
     <t>Verona</t>
   </si>
   <si>
-    <t>Milan</t>
+    <t>Torino</t>
   </si>
   <si>
     <t>Venezia</t>
   </si>
   <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
     <t>Inter</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
-    <t>Como</t>
+    <t>Roma</t>
   </si>
   <si>
     <t>Atalanta</t>
-  </si>
-  <si>
-    <t>Udinese</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
-    <t>Roma</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>4600.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>4050.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>3800.0</v>
+        <v>5000.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3700.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>3650.0</v>
+        <v>4450.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>3450.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>3000.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>2750.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>2450.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>2400.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>2100.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>1700.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>1400.0</v>
+        <v>2250.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>1300.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>1100.0</v>
+        <v>2100.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>1000.0</v>
+        <v>1950.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>1000.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>900.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>750.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>700.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>4250.0</v>
+        <v>6450.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>4250.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>3850.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>3250.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>3200.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>2950.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>2950.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="9">
@@ -535,7 +535,7 @@
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>2900.0</v>
+        <v>3500.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>2500.0</v>
+        <v>3200.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>2400.0</v>
+        <v>3050.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>2350.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>2050.0</v>
+        <v>2950.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C14" t="n">
-        <v>1550.0</v>
+        <v>2850.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>1400.0</v>
+        <v>2600.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C16" t="n">
-        <v>1400.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C17" t="n">
-        <v>1400.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>1200.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>1200.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
-        <v>550.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>200.0</v>
+        <v>750.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>8450.0</v>
+        <v>11450.0</v>
       </c>
       <c r="D2" t="n">
-        <v>768.1818181818181</v>
+        <v>1040.909090909091</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>7300.0</v>
+        <v>8950.0</v>
       </c>
       <c r="D3" t="n">
-        <v>663.6363636363636</v>
+        <v>813.6363636363636</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>6200.0</v>
+        <v>7800.0</v>
       </c>
       <c r="D4" t="n">
-        <v>563.6363636363636</v>
+        <v>709.0909090909091</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>5700.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D5" t="n">
-        <v>518.1818181818181</v>
+        <v>704.5454545454545</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="n">
-        <v>5650.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D6" t="n">
-        <v>513.6363636363636</v>
+        <v>654.5454545454545</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>5350.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D7" t="n">
-        <v>486.3636363636364</v>
+        <v>631.8181818181819</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>5350.0</v>
+        <v>6950.0</v>
       </c>
       <c r="D8" t="n">
-        <v>486.3636363636364</v>
+        <v>631.8181818181819</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>5200.0</v>
+        <v>6700.0</v>
       </c>
       <c r="D9" t="n">
-        <v>472.72727272727275</v>
+        <v>609.0909090909091</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>5150.0</v>
+        <v>6700.0</v>
       </c>
       <c r="D10" t="n">
-        <v>468.1818181818182</v>
+        <v>609.0909090909091</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>5100.0</v>
+        <v>6650.0</v>
       </c>
       <c r="D11" t="n">
-        <v>463.6363636363636</v>
+        <v>604.5454545454545</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>4200.0</v>
+        <v>5850.0</v>
       </c>
       <c r="D12" t="n">
-        <v>381.8181818181818</v>
+        <v>531.8181818181819</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>3900.0</v>
+        <v>5700.0</v>
       </c>
       <c r="D13" t="n">
-        <v>354.54545454545456</v>
+        <v>518.1818181818181</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>3650.0</v>
+        <v>5450.0</v>
       </c>
       <c r="D14" t="n">
-        <v>331.8181818181818</v>
+        <v>495.45454545454544</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>3650.0</v>
+        <v>5250.0</v>
       </c>
       <c r="D15" t="n">
-        <v>331.8181818181818</v>
+        <v>477.27272727272725</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>3500.0</v>
+        <v>4700.0</v>
       </c>
       <c r="D16" t="n">
-        <v>318.1818181818182</v>
+        <v>427.27272727272725</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>3250.0</v>
+        <v>4700.0</v>
       </c>
       <c r="D17" t="n">
-        <v>295.45454545454544</v>
+        <v>427.27272727272725</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
-        <v>2750.0</v>
+        <v>4350.0</v>
       </c>
       <c r="D18" t="n">
-        <v>250.0</v>
+        <v>395.45454545454544</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>2700.0</v>
+        <v>4350.0</v>
       </c>
       <c r="D19" t="n">
-        <v>245.45454545454547</v>
+        <v>395.45454545454544</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>2300.0</v>
+        <v>2550.0</v>
       </c>
       <c r="D20" t="n">
-        <v>209.0909090909091</v>
+        <v>231.8181818181818</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C21" t="n">
-        <v>2250.0</v>
+        <v>1900.0</v>
       </c>
       <c r="D21" t="n">
-        <v>204.54545454545453</v>
+        <v>172.72727272727272</v>
       </c>
     </row>
   </sheetData>
